--- a/DatalexionBackend/DatalexionBackend.UI/wwwroot/Circuitos_upload.xlsx
+++ b/DatalexionBackend/DatalexionBackend.UI/wwwroot/Circuitos_upload.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Datalexion_helpers\Datalexion_FirebaseBulkUpload\Datalexion_FirebaseBulkUpload\bin\Debug\net7.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DatalexionSolution\DatalexionBackend\DatalexionBackend.UI\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20483" windowHeight="9198"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Plan Circuital - Versión 3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plan Circuital - Versión 3'!$A$1:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plan Circuital - Versión 3'!$A$1:$I$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
   <si>
     <t>SI</t>
   </si>
@@ -151,12 +151,18 @@
   <si>
     <t>PORTUGAL 4257 esq. AV CARLOS MARÍA RAMÍREZ</t>
   </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>Santa Lucía</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +189,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -350,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,6 +419,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,582 +690,644 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z206"/>
+  <dimension ref="A1:AA206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.1" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.2" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="59.125" customWidth="1"/>
-    <col min="8" max="8" width="62" customWidth="1"/>
-    <col min="9" max="26" width="96.5" customWidth="1"/>
+    <col min="1" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="59.125" customWidth="1"/>
+    <col min="9" max="9" width="62" customWidth="1"/>
+    <col min="10" max="27" width="96.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2056</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>11670</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>12318</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2066</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>16638</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>17050</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2073</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>9947</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>10769</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2079</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>13928</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>14428</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2083</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>7414</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F6" s="11">
         <v>8833</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2091</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>15724</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>16528</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2098</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>20841</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>21567</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2105</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>25181</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>25821</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2114</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>30363</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>30936</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2136</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>40785</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>41214</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2143</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>43729</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>44158</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2159</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="11">
         <v>14887</v>
       </c>
-      <c r="E13" s="11">
+      <c r="F13" s="11">
         <v>16354</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="J13" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2167</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>23285</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>24205</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2168</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>30363</v>
+      </c>
+      <c r="F15" s="2">
+        <v>30936</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2169</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40785</v>
+      </c>
+      <c r="F16" s="2">
+        <v>41214</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2170</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43729</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44158</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2171</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="11">
+        <v>14887</v>
+      </c>
+      <c r="F18" s="11">
+        <v>16354</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2172</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2">
+        <v>23285</v>
+      </c>
+      <c r="F19" s="2">
+        <v>24205</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="8"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -1267,17 +1345,18 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA20" s="8"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="8"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -1295,17 +1374,18 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA21" s="8"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="8"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -1323,17 +1403,18 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA22" s="8"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="8"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -1351,17 +1432,18 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA23" s="8"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="8"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -1379,17 +1461,18 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA24" s="8"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="8"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -1407,17 +1490,18 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA25" s="8"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="8"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -1435,17 +1519,18 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA26" s="8"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -1463,17 +1548,18 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA27" s="8"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="8"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -1491,17 +1577,18 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA28" s="8"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="8"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -1519,17 +1606,18 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA29" s="8"/>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="8"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -1547,17 +1635,18 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA30" s="8"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="5"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="8"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -1575,17 +1664,18 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA31" s="8"/>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="8"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -1603,17 +1693,18 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA32" s="8"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="8"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -1631,17 +1722,18 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA33" s="8"/>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="8"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -1659,17 +1751,18 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA34" s="8"/>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="8"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -1687,17 +1780,18 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA35" s="8"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="8"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -1715,17 +1809,18 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA36" s="8"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="8"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -1743,17 +1838,18 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA37" s="8"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="5"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
@@ -1771,17 +1867,18 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA38" s="8"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -1799,17 +1896,18 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA39" s="8"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="5"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="8"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -1827,17 +1925,18 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA40" s="8"/>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="5"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="8"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -1855,17 +1954,18 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
-    </row>
-    <row r="42" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA41" s="8"/>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="5"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="8"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -1883,17 +1983,18 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
-    </row>
-    <row r="43" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA42" s="8"/>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="8"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
@@ -1911,17 +2012,18 @@
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
-    </row>
-    <row r="44" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA43" s="8"/>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="5"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="8"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -1939,17 +2041,18 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA44" s="8"/>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="7"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="8"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
@@ -1967,17 +2070,18 @@
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
-    </row>
-    <row r="46" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA45" s="8"/>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="8"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
@@ -1995,17 +2099,18 @@
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
-    </row>
-    <row r="47" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA46" s="8"/>
+    </row>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="8"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
@@ -2023,17 +2128,18 @@
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
-    </row>
-    <row r="48" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA47" s="8"/>
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="5"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="8"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
@@ -2051,17 +2157,18 @@
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
-    </row>
-    <row r="49" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA48" s="8"/>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="5"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="8"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -2079,17 +2186,18 @@
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
-    </row>
-    <row r="50" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA49" s="8"/>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="8"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -2107,17 +2215,18 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
-    </row>
-    <row r="51" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA50" s="8"/>
+    </row>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="8"/>
+      <c r="I51" s="5"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
@@ -2135,17 +2244,18 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
-    </row>
-    <row r="52" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA51" s="8"/>
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="8"/>
+      <c r="I52" s="5"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -2163,17 +2273,18 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
-    </row>
-    <row r="53" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA52" s="8"/>
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="5"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="8"/>
+      <c r="I53" s="5"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
@@ -2191,17 +2302,18 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
-    </row>
-    <row r="54" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA53" s="8"/>
+    </row>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="5"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="8"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
@@ -2219,17 +2331,18 @@
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
-    </row>
-    <row r="55" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA54" s="8"/>
+    </row>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="5"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="8"/>
+      <c r="I55" s="5"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
@@ -2247,17 +2360,18 @@
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
-    </row>
-    <row r="56" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA55" s="8"/>
+    </row>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="5"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="8"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
@@ -2275,17 +2389,18 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
-    </row>
-    <row r="57" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA56" s="8"/>
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="5"/>
+      <c r="G57" s="7"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="8"/>
+      <c r="I57" s="5"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -2303,17 +2418,18 @@
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA57" s="8"/>
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="5"/>
+      <c r="G58" s="7"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="8"/>
+      <c r="I58" s="5"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -2331,17 +2447,18 @@
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA58" s="8"/>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="5"/>
+      <c r="G59" s="7"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="8"/>
+      <c r="I59" s="5"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -2359,17 +2476,18 @@
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA59" s="8"/>
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="5"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="8"/>
+      <c r="I60" s="5"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
@@ -2387,17 +2505,18 @@
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
-    </row>
-    <row r="61" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA60" s="8"/>
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="5"/>
+      <c r="G61" s="7"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="8"/>
+      <c r="I61" s="5"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
@@ -2415,17 +2534,18 @@
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
-    </row>
-    <row r="62" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA61" s="8"/>
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="5"/>
+      <c r="G62" s="7"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="8"/>
+      <c r="I62" s="5"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -2443,17 +2563,18 @@
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
-    </row>
-    <row r="63" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA62" s="8"/>
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="5"/>
+      <c r="G63" s="7"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="8"/>
+      <c r="I63" s="5"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -2471,17 +2592,18 @@
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
-    </row>
-    <row r="64" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA63" s="8"/>
+    </row>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="5"/>
+      <c r="G64" s="7"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="8"/>
+      <c r="I64" s="5"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -2499,17 +2621,18 @@
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
-    </row>
-    <row r="65" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA64" s="8"/>
+    </row>
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="5"/>
+      <c r="G65" s="7"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="8"/>
+      <c r="I65" s="5"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -2527,17 +2650,18 @@
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA65" s="8"/>
+    </row>
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="5"/>
+      <c r="G66" s="7"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="8"/>
+      <c r="I66" s="5"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
@@ -2555,17 +2679,18 @@
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA66" s="8"/>
+    </row>
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="5"/>
+      <c r="G67" s="7"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="8"/>
+      <c r="I67" s="5"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -2583,17 +2708,18 @@
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA67" s="8"/>
+    </row>
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="5"/>
+      <c r="G68" s="7"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="8"/>
+      <c r="I68" s="5"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
@@ -2611,17 +2737,18 @@
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA68" s="8"/>
+    </row>
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="5"/>
+      <c r="G69" s="7"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="8"/>
+      <c r="I69" s="5"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
@@ -2639,17 +2766,18 @@
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
-    </row>
-    <row r="70" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA69" s="8"/>
+    </row>
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="5"/>
+      <c r="G70" s="7"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="8"/>
+      <c r="I70" s="5"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -2667,17 +2795,18 @@
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
       <c r="Z70" s="8"/>
-    </row>
-    <row r="71" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA70" s="8"/>
+    </row>
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="5"/>
+      <c r="G71" s="7"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="8"/>
+      <c r="I71" s="5"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
@@ -2695,17 +2824,18 @@
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
       <c r="Z71" s="8"/>
-    </row>
-    <row r="72" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA71" s="8"/>
+    </row>
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="5"/>
+      <c r="G72" s="7"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="8"/>
+      <c r="I72" s="5"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -2723,17 +2853,18 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
-    </row>
-    <row r="73" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA72" s="8"/>
+    </row>
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="5"/>
+      <c r="G73" s="7"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="8"/>
+      <c r="I73" s="5"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
@@ -2751,17 +2882,18 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
-    </row>
-    <row r="74" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA73" s="8"/>
+    </row>
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="5"/>
+      <c r="G74" s="7"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="8"/>
+      <c r="I74" s="5"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
@@ -2779,17 +2911,18 @@
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
-    </row>
-    <row r="75" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA74" s="8"/>
+    </row>
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="5"/>
+      <c r="G75" s="7"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="8"/>
+      <c r="I75" s="5"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
@@ -2807,17 +2940,18 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
-    </row>
-    <row r="76" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA75" s="8"/>
+    </row>
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="5"/>
+      <c r="G76" s="7"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="8"/>
+      <c r="I76" s="5"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
@@ -2835,17 +2969,18 @@
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
-    </row>
-    <row r="77" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA76" s="8"/>
+    </row>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="5"/>
+      <c r="G77" s="7"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="8"/>
+      <c r="I77" s="5"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
@@ -2863,17 +2998,18 @@
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
       <c r="Z77" s="8"/>
-    </row>
-    <row r="78" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA77" s="8"/>
+    </row>
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="5"/>
+      <c r="G78" s="7"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="8"/>
+      <c r="I78" s="5"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
@@ -2891,17 +3027,18 @@
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
-    </row>
-    <row r="79" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA78" s="8"/>
+    </row>
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="5"/>
+      <c r="G79" s="7"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="8"/>
+      <c r="I79" s="5"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
@@ -2919,17 +3056,18 @@
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA79" s="8"/>
+    </row>
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="5"/>
+      <c r="G80" s="7"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="8"/>
+      <c r="I80" s="5"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
@@ -2947,17 +3085,18 @@
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
-    </row>
-    <row r="81" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA80" s="8"/>
+    </row>
+    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="5"/>
+      <c r="G81" s="7"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="8"/>
+      <c r="I81" s="5"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
@@ -2975,17 +3114,18 @@
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA81" s="8"/>
+    </row>
+    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-      <c r="G82" s="5"/>
+      <c r="G82" s="7"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="8"/>
+      <c r="I82" s="5"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
@@ -3003,17 +3143,18 @@
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
-    </row>
-    <row r="83" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA82" s="8"/>
+    </row>
+    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="5"/>
+      <c r="G83" s="7"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="8"/>
+      <c r="I83" s="5"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
@@ -3031,17 +3172,18 @@
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
-    </row>
-    <row r="84" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA83" s="8"/>
+    </row>
+    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="5"/>
+      <c r="G84" s="7"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="8"/>
+      <c r="I84" s="5"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
@@ -3059,17 +3201,18 @@
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
       <c r="Z84" s="8"/>
-    </row>
-    <row r="85" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA84" s="8"/>
+    </row>
+    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="5"/>
+      <c r="G85" s="7"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="8"/>
+      <c r="I85" s="5"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
@@ -3087,17 +3230,18 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
-    </row>
-    <row r="86" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA85" s="8"/>
+    </row>
+    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="5"/>
+      <c r="G86" s="7"/>
       <c r="H86" s="5"/>
-      <c r="I86" s="8"/>
+      <c r="I86" s="5"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
@@ -3115,17 +3259,18 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
-    </row>
-    <row r="87" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA86" s="8"/>
+    </row>
+    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="5"/>
+      <c r="G87" s="7"/>
       <c r="H87" s="5"/>
-      <c r="I87" s="8"/>
+      <c r="I87" s="5"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
@@ -3143,17 +3288,18 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
-    </row>
-    <row r="88" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA87" s="8"/>
+    </row>
+    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="5"/>
+      <c r="G88" s="7"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="8"/>
+      <c r="I88" s="5"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
@@ -3171,17 +3317,18 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
-    </row>
-    <row r="89" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA88" s="8"/>
+    </row>
+    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="5"/>
+      <c r="G89" s="7"/>
       <c r="H89" s="5"/>
-      <c r="I89" s="8"/>
+      <c r="I89" s="5"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
@@ -3199,17 +3346,18 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
-    </row>
-    <row r="90" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA89" s="8"/>
+    </row>
+    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="5"/>
+      <c r="G90" s="7"/>
       <c r="H90" s="5"/>
-      <c r="I90" s="8"/>
+      <c r="I90" s="5"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
@@ -3227,17 +3375,18 @@
       <c r="X90" s="8"/>
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
-    </row>
-    <row r="91" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA90" s="8"/>
+    </row>
+    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="5"/>
+      <c r="G91" s="7"/>
       <c r="H91" s="5"/>
-      <c r="I91" s="8"/>
+      <c r="I91" s="5"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
@@ -3255,17 +3404,18 @@
       <c r="X91" s="8"/>
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
-    </row>
-    <row r="92" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA91" s="8"/>
+    </row>
+    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="5"/>
+      <c r="G92" s="7"/>
       <c r="H92" s="5"/>
-      <c r="I92" s="8"/>
+      <c r="I92" s="5"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
@@ -3283,17 +3433,18 @@
       <c r="X92" s="8"/>
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
-    </row>
-    <row r="93" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA92" s="8"/>
+    </row>
+    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="5"/>
+      <c r="G93" s="7"/>
       <c r="H93" s="5"/>
-      <c r="I93" s="8"/>
+      <c r="I93" s="5"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
@@ -3311,17 +3462,18 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
-    </row>
-    <row r="94" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA93" s="8"/>
+    </row>
+    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="5"/>
+      <c r="G94" s="7"/>
       <c r="H94" s="5"/>
-      <c r="I94" s="8"/>
+      <c r="I94" s="5"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
@@ -3339,17 +3491,18 @@
       <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
-    </row>
-    <row r="95" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA94" s="8"/>
+    </row>
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="5"/>
+      <c r="G95" s="7"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="8"/>
+      <c r="I95" s="5"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
@@ -3367,17 +3520,18 @@
       <c r="X95" s="8"/>
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
-    </row>
-    <row r="96" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA95" s="8"/>
+    </row>
+    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
-      <c r="G96" s="5"/>
+      <c r="G96" s="7"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="8"/>
+      <c r="I96" s="5"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
@@ -3395,17 +3549,18 @@
       <c r="X96" s="8"/>
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
-    </row>
-    <row r="97" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA96" s="8"/>
+    </row>
+    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
-      <c r="G97" s="5"/>
+      <c r="G97" s="7"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="8"/>
+      <c r="I97" s="5"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
@@ -3423,17 +3578,18 @@
       <c r="X97" s="8"/>
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
-    </row>
-    <row r="98" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA97" s="8"/>
+    </row>
+    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
-      <c r="G98" s="5"/>
+      <c r="G98" s="7"/>
       <c r="H98" s="5"/>
-      <c r="I98" s="8"/>
+      <c r="I98" s="5"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
@@ -3451,17 +3607,18 @@
       <c r="X98" s="8"/>
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
-    </row>
-    <row r="99" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA98" s="8"/>
+    </row>
+    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="5"/>
+      <c r="G99" s="7"/>
       <c r="H99" s="5"/>
-      <c r="I99" s="8"/>
+      <c r="I99" s="5"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
@@ -3479,17 +3636,18 @@
       <c r="X99" s="8"/>
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
-    </row>
-    <row r="100" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA99" s="8"/>
+    </row>
+    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
-      <c r="G100" s="5"/>
+      <c r="G100" s="7"/>
       <c r="H100" s="5"/>
-      <c r="I100" s="8"/>
+      <c r="I100" s="5"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
@@ -3507,17 +3665,18 @@
       <c r="X100" s="8"/>
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
-    </row>
-    <row r="101" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA100" s="8"/>
+    </row>
+    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="5"/>
+      <c r="G101" s="7"/>
       <c r="H101" s="5"/>
-      <c r="I101" s="8"/>
+      <c r="I101" s="5"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
@@ -3535,17 +3694,18 @@
       <c r="X101" s="8"/>
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
-    </row>
-    <row r="102" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA101" s="8"/>
+    </row>
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="5"/>
+      <c r="G102" s="7"/>
       <c r="H102" s="5"/>
-      <c r="I102" s="8"/>
+      <c r="I102" s="5"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
@@ -3563,17 +3723,18 @@
       <c r="X102" s="8"/>
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
-    </row>
-    <row r="103" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA102" s="8"/>
+    </row>
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="5"/>
+      <c r="G103" s="7"/>
       <c r="H103" s="5"/>
-      <c r="I103" s="8"/>
+      <c r="I103" s="5"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
@@ -3591,17 +3752,18 @@
       <c r="X103" s="8"/>
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
-    </row>
-    <row r="104" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA103" s="8"/>
+    </row>
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="5"/>
+      <c r="G104" s="7"/>
       <c r="H104" s="5"/>
-      <c r="I104" s="8"/>
+      <c r="I104" s="5"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
@@ -3619,17 +3781,18 @@
       <c r="X104" s="8"/>
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
-    </row>
-    <row r="105" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA104" s="8"/>
+    </row>
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
-      <c r="G105" s="5"/>
+      <c r="G105" s="7"/>
       <c r="H105" s="5"/>
-      <c r="I105" s="8"/>
+      <c r="I105" s="5"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
@@ -3647,17 +3810,18 @@
       <c r="X105" s="8"/>
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
-    </row>
-    <row r="106" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA105" s="8"/>
+    </row>
+    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
-      <c r="G106" s="5"/>
+      <c r="G106" s="7"/>
       <c r="H106" s="5"/>
-      <c r="I106" s="8"/>
+      <c r="I106" s="5"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
@@ -3675,17 +3839,18 @@
       <c r="X106" s="8"/>
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
-    </row>
-    <row r="107" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA106" s="8"/>
+    </row>
+    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="5"/>
+      <c r="G107" s="7"/>
       <c r="H107" s="5"/>
-      <c r="I107" s="8"/>
+      <c r="I107" s="5"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
@@ -3703,17 +3868,18 @@
       <c r="X107" s="8"/>
       <c r="Y107" s="8"/>
       <c r="Z107" s="8"/>
-    </row>
-    <row r="108" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA107" s="8"/>
+    </row>
+    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
-      <c r="G108" s="5"/>
+      <c r="G108" s="7"/>
       <c r="H108" s="5"/>
-      <c r="I108" s="8"/>
+      <c r="I108" s="5"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
@@ -3731,17 +3897,18 @@
       <c r="X108" s="8"/>
       <c r="Y108" s="8"/>
       <c r="Z108" s="8"/>
-    </row>
-    <row r="109" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA108" s="8"/>
+    </row>
+    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-      <c r="G109" s="5"/>
+      <c r="G109" s="7"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="8"/>
+      <c r="I109" s="5"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
@@ -3759,17 +3926,18 @@
       <c r="X109" s="8"/>
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
-    </row>
-    <row r="110" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA109" s="8"/>
+    </row>
+    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
-      <c r="G110" s="5"/>
+      <c r="G110" s="7"/>
       <c r="H110" s="5"/>
-      <c r="I110" s="8"/>
+      <c r="I110" s="5"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
@@ -3787,17 +3955,18 @@
       <c r="X110" s="8"/>
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
-    </row>
-    <row r="111" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA110" s="8"/>
+    </row>
+    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
-      <c r="G111" s="5"/>
+      <c r="G111" s="7"/>
       <c r="H111" s="5"/>
-      <c r="I111" s="8"/>
+      <c r="I111" s="5"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
@@ -3815,17 +3984,18 @@
       <c r="X111" s="8"/>
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
-    </row>
-    <row r="112" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA111" s="8"/>
+    </row>
+    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
-      <c r="G112" s="5"/>
+      <c r="G112" s="7"/>
       <c r="H112" s="5"/>
-      <c r="I112" s="8"/>
+      <c r="I112" s="5"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
@@ -3843,17 +4013,18 @@
       <c r="X112" s="8"/>
       <c r="Y112" s="8"/>
       <c r="Z112" s="8"/>
-    </row>
-    <row r="113" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA112" s="8"/>
+    </row>
+    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
-      <c r="G113" s="5"/>
+      <c r="G113" s="7"/>
       <c r="H113" s="5"/>
-      <c r="I113" s="8"/>
+      <c r="I113" s="5"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
@@ -3871,17 +4042,18 @@
       <c r="X113" s="8"/>
       <c r="Y113" s="8"/>
       <c r="Z113" s="8"/>
-    </row>
-    <row r="114" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA113" s="8"/>
+    </row>
+    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
-      <c r="G114" s="5"/>
+      <c r="G114" s="7"/>
       <c r="H114" s="5"/>
-      <c r="I114" s="8"/>
+      <c r="I114" s="5"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
@@ -3899,17 +4071,18 @@
       <c r="X114" s="8"/>
       <c r="Y114" s="8"/>
       <c r="Z114" s="8"/>
-    </row>
-    <row r="115" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA114" s="8"/>
+    </row>
+    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="5"/>
+      <c r="G115" s="7"/>
       <c r="H115" s="5"/>
-      <c r="I115" s="8"/>
+      <c r="I115" s="5"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
@@ -3927,17 +4100,18 @@
       <c r="X115" s="8"/>
       <c r="Y115" s="8"/>
       <c r="Z115" s="8"/>
-    </row>
-    <row r="116" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA115" s="8"/>
+    </row>
+    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
-      <c r="G116" s="5"/>
+      <c r="G116" s="7"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="8"/>
+      <c r="I116" s="5"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
@@ -3955,17 +4129,18 @@
       <c r="X116" s="8"/>
       <c r="Y116" s="8"/>
       <c r="Z116" s="8"/>
-    </row>
-    <row r="117" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA116" s="8"/>
+    </row>
+    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="5"/>
+      <c r="G117" s="7"/>
       <c r="H117" s="5"/>
-      <c r="I117" s="8"/>
+      <c r="I117" s="5"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
@@ -3983,17 +4158,18 @@
       <c r="X117" s="8"/>
       <c r="Y117" s="8"/>
       <c r="Z117" s="8"/>
-    </row>
-    <row r="118" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA117" s="8"/>
+    </row>
+    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
-      <c r="G118" s="5"/>
+      <c r="G118" s="7"/>
       <c r="H118" s="5"/>
-      <c r="I118" s="8"/>
+      <c r="I118" s="5"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
@@ -4011,17 +4187,18 @@
       <c r="X118" s="8"/>
       <c r="Y118" s="8"/>
       <c r="Z118" s="8"/>
-    </row>
-    <row r="119" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA118" s="8"/>
+    </row>
+    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
-      <c r="G119" s="5"/>
+      <c r="G119" s="7"/>
       <c r="H119" s="5"/>
-      <c r="I119" s="8"/>
+      <c r="I119" s="5"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
@@ -4039,17 +4216,18 @@
       <c r="X119" s="8"/>
       <c r="Y119" s="8"/>
       <c r="Z119" s="8"/>
-    </row>
-    <row r="120" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA119" s="8"/>
+    </row>
+    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
-      <c r="G120" s="5"/>
+      <c r="G120" s="7"/>
       <c r="H120" s="5"/>
-      <c r="I120" s="8"/>
+      <c r="I120" s="5"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
@@ -4067,17 +4245,18 @@
       <c r="X120" s="8"/>
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
-    </row>
-    <row r="121" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA120" s="8"/>
+    </row>
+    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
-      <c r="G121" s="5"/>
+      <c r="G121" s="7"/>
       <c r="H121" s="5"/>
-      <c r="I121" s="8"/>
+      <c r="I121" s="5"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
@@ -4095,17 +4274,18 @@
       <c r="X121" s="8"/>
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
-    </row>
-    <row r="122" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA121" s="8"/>
+    </row>
+    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
-      <c r="G122" s="5"/>
+      <c r="G122" s="7"/>
       <c r="H122" s="5"/>
-      <c r="I122" s="8"/>
+      <c r="I122" s="5"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
@@ -4123,17 +4303,18 @@
       <c r="X122" s="8"/>
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
-    </row>
-    <row r="123" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA122" s="8"/>
+    </row>
+    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
-      <c r="G123" s="5"/>
+      <c r="G123" s="7"/>
       <c r="H123" s="5"/>
-      <c r="I123" s="8"/>
+      <c r="I123" s="5"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
@@ -4151,17 +4332,18 @@
       <c r="X123" s="8"/>
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
-    </row>
-    <row r="124" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA123" s="8"/>
+    </row>
+    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
-      <c r="G124" s="5"/>
+      <c r="G124" s="7"/>
       <c r="H124" s="5"/>
-      <c r="I124" s="8"/>
+      <c r="I124" s="5"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
@@ -4179,17 +4361,18 @@
       <c r="X124" s="8"/>
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
-    </row>
-    <row r="125" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA124" s="8"/>
+    </row>
+    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
-      <c r="G125" s="5"/>
+      <c r="G125" s="7"/>
       <c r="H125" s="5"/>
-      <c r="I125" s="8"/>
+      <c r="I125" s="5"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
@@ -4207,17 +4390,18 @@
       <c r="X125" s="8"/>
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
-    </row>
-    <row r="126" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA125" s="8"/>
+    </row>
+    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
-      <c r="G126" s="5"/>
+      <c r="G126" s="7"/>
       <c r="H126" s="5"/>
-      <c r="I126" s="8"/>
+      <c r="I126" s="5"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
@@ -4235,17 +4419,18 @@
       <c r="X126" s="8"/>
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
-    </row>
-    <row r="127" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA126" s="8"/>
+    </row>
+    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
-      <c r="G127" s="5"/>
+      <c r="G127" s="7"/>
       <c r="H127" s="5"/>
-      <c r="I127" s="8"/>
+      <c r="I127" s="5"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
@@ -4263,17 +4448,18 @@
       <c r="X127" s="8"/>
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
-    </row>
-    <row r="128" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA127" s="8"/>
+    </row>
+    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
-      <c r="G128" s="5"/>
+      <c r="G128" s="7"/>
       <c r="H128" s="5"/>
-      <c r="I128" s="8"/>
+      <c r="I128" s="5"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
@@ -4291,17 +4477,18 @@
       <c r="X128" s="8"/>
       <c r="Y128" s="8"/>
       <c r="Z128" s="8"/>
-    </row>
-    <row r="129" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA128" s="8"/>
+    </row>
+    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
-      <c r="G129" s="5"/>
+      <c r="G129" s="7"/>
       <c r="H129" s="5"/>
-      <c r="I129" s="8"/>
+      <c r="I129" s="5"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
@@ -4319,17 +4506,18 @@
       <c r="X129" s="8"/>
       <c r="Y129" s="8"/>
       <c r="Z129" s="8"/>
-    </row>
-    <row r="130" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA129" s="8"/>
+    </row>
+    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
-      <c r="G130" s="5"/>
+      <c r="G130" s="7"/>
       <c r="H130" s="5"/>
-      <c r="I130" s="8"/>
+      <c r="I130" s="5"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
@@ -4347,17 +4535,18 @@
       <c r="X130" s="8"/>
       <c r="Y130" s="8"/>
       <c r="Z130" s="8"/>
-    </row>
-    <row r="131" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA130" s="8"/>
+    </row>
+    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="5"/>
+      <c r="G131" s="7"/>
       <c r="H131" s="5"/>
-      <c r="I131" s="8"/>
+      <c r="I131" s="5"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
@@ -4375,17 +4564,18 @@
       <c r="X131" s="8"/>
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
-    </row>
-    <row r="132" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA131" s="8"/>
+    </row>
+    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
-      <c r="G132" s="5"/>
+      <c r="G132" s="7"/>
       <c r="H132" s="5"/>
-      <c r="I132" s="8"/>
+      <c r="I132" s="5"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
@@ -4403,17 +4593,18 @@
       <c r="X132" s="8"/>
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
-    </row>
-    <row r="133" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA132" s="8"/>
+    </row>
+    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
-      <c r="G133" s="5"/>
+      <c r="G133" s="7"/>
       <c r="H133" s="5"/>
-      <c r="I133" s="8"/>
+      <c r="I133" s="5"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
@@ -4431,17 +4622,18 @@
       <c r="X133" s="8"/>
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
-    </row>
-    <row r="134" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA133" s="8"/>
+    </row>
+    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
-      <c r="G134" s="5"/>
+      <c r="G134" s="7"/>
       <c r="H134" s="5"/>
-      <c r="I134" s="8"/>
+      <c r="I134" s="5"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -4459,17 +4651,18 @@
       <c r="X134" s="8"/>
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
-    </row>
-    <row r="135" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA134" s="8"/>
+    </row>
+    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
-      <c r="G135" s="5"/>
+      <c r="G135" s="7"/>
       <c r="H135" s="5"/>
-      <c r="I135" s="8"/>
+      <c r="I135" s="5"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
@@ -4487,17 +4680,18 @@
       <c r="X135" s="8"/>
       <c r="Y135" s="8"/>
       <c r="Z135" s="8"/>
-    </row>
-    <row r="136" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA135" s="8"/>
+    </row>
+    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
-      <c r="G136" s="5"/>
+      <c r="G136" s="7"/>
       <c r="H136" s="5"/>
-      <c r="I136" s="8"/>
+      <c r="I136" s="5"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
@@ -4515,17 +4709,18 @@
       <c r="X136" s="8"/>
       <c r="Y136" s="8"/>
       <c r="Z136" s="8"/>
-    </row>
-    <row r="137" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA136" s="8"/>
+    </row>
+    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
-      <c r="G137" s="5"/>
+      <c r="G137" s="7"/>
       <c r="H137" s="5"/>
-      <c r="I137" s="8"/>
+      <c r="I137" s="5"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
@@ -4543,17 +4738,18 @@
       <c r="X137" s="8"/>
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
-    </row>
-    <row r="138" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA137" s="8"/>
+    </row>
+    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
-      <c r="G138" s="5"/>
+      <c r="G138" s="7"/>
       <c r="H138" s="5"/>
-      <c r="I138" s="8"/>
+      <c r="I138" s="5"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
@@ -4571,17 +4767,18 @@
       <c r="X138" s="8"/>
       <c r="Y138" s="8"/>
       <c r="Z138" s="8"/>
-    </row>
-    <row r="139" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA138" s="8"/>
+    </row>
+    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
-      <c r="G139" s="5"/>
+      <c r="G139" s="7"/>
       <c r="H139" s="5"/>
-      <c r="I139" s="8"/>
+      <c r="I139" s="5"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
@@ -4599,17 +4796,18 @@
       <c r="X139" s="8"/>
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
-    </row>
-    <row r="140" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA139" s="8"/>
+    </row>
+    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
-      <c r="G140" s="5"/>
+      <c r="G140" s="7"/>
       <c r="H140" s="5"/>
-      <c r="I140" s="8"/>
+      <c r="I140" s="5"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
@@ -4627,17 +4825,18 @@
       <c r="X140" s="8"/>
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
-    </row>
-    <row r="141" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA140" s="8"/>
+    </row>
+    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
-      <c r="G141" s="5"/>
+      <c r="G141" s="7"/>
       <c r="H141" s="5"/>
-      <c r="I141" s="8"/>
+      <c r="I141" s="5"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
@@ -4655,17 +4854,18 @@
       <c r="X141" s="8"/>
       <c r="Y141" s="8"/>
       <c r="Z141" s="8"/>
-    </row>
-    <row r="142" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA141" s="8"/>
+    </row>
+    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
-      <c r="G142" s="5"/>
+      <c r="G142" s="7"/>
       <c r="H142" s="5"/>
-      <c r="I142" s="8"/>
+      <c r="I142" s="5"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
@@ -4683,17 +4883,18 @@
       <c r="X142" s="8"/>
       <c r="Y142" s="8"/>
       <c r="Z142" s="8"/>
-    </row>
-    <row r="143" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA142" s="8"/>
+    </row>
+    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
-      <c r="G143" s="5"/>
+      <c r="G143" s="7"/>
       <c r="H143" s="5"/>
-      <c r="I143" s="8"/>
+      <c r="I143" s="5"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
@@ -4711,17 +4912,18 @@
       <c r="X143" s="8"/>
       <c r="Y143" s="8"/>
       <c r="Z143" s="8"/>
-    </row>
-    <row r="144" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA143" s="8"/>
+    </row>
+    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
-      <c r="G144" s="5"/>
+      <c r="G144" s="7"/>
       <c r="H144" s="5"/>
-      <c r="I144" s="8"/>
+      <c r="I144" s="5"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
@@ -4739,17 +4941,18 @@
       <c r="X144" s="8"/>
       <c r="Y144" s="8"/>
       <c r="Z144" s="8"/>
-    </row>
-    <row r="145" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA144" s="8"/>
+    </row>
+    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
-      <c r="G145" s="5"/>
+      <c r="G145" s="7"/>
       <c r="H145" s="5"/>
-      <c r="I145" s="8"/>
+      <c r="I145" s="5"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
@@ -4767,17 +4970,18 @@
       <c r="X145" s="8"/>
       <c r="Y145" s="8"/>
       <c r="Z145" s="8"/>
-    </row>
-    <row r="146" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA145" s="8"/>
+    </row>
+    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
-      <c r="G146" s="5"/>
+      <c r="G146" s="7"/>
       <c r="H146" s="5"/>
-      <c r="I146" s="8"/>
+      <c r="I146" s="5"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
@@ -4795,17 +4999,18 @@
       <c r="X146" s="8"/>
       <c r="Y146" s="8"/>
       <c r="Z146" s="8"/>
-    </row>
-    <row r="147" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA146" s="8"/>
+    </row>
+    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
-      <c r="G147" s="5"/>
+      <c r="G147" s="7"/>
       <c r="H147" s="5"/>
-      <c r="I147" s="8"/>
+      <c r="I147" s="5"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
@@ -4823,17 +5028,18 @@
       <c r="X147" s="8"/>
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
-    </row>
-    <row r="148" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA147" s="8"/>
+    </row>
+    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
-      <c r="G148" s="5"/>
+      <c r="G148" s="7"/>
       <c r="H148" s="5"/>
-      <c r="I148" s="8"/>
+      <c r="I148" s="5"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
@@ -4851,17 +5057,18 @@
       <c r="X148" s="8"/>
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA148" s="8"/>
+    </row>
+    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
-      <c r="G149" s="5"/>
+      <c r="G149" s="7"/>
       <c r="H149" s="5"/>
-      <c r="I149" s="8"/>
+      <c r="I149" s="5"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -4879,17 +5086,18 @@
       <c r="X149" s="8"/>
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
-    </row>
-    <row r="150" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA149" s="8"/>
+    </row>
+    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
-      <c r="G150" s="5"/>
+      <c r="G150" s="7"/>
       <c r="H150" s="5"/>
-      <c r="I150" s="8"/>
+      <c r="I150" s="5"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -4907,17 +5115,18 @@
       <c r="X150" s="8"/>
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
-    </row>
-    <row r="151" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA150" s="8"/>
+    </row>
+    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
-      <c r="G151" s="5"/>
+      <c r="G151" s="7"/>
       <c r="H151" s="5"/>
-      <c r="I151" s="8"/>
+      <c r="I151" s="5"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
@@ -4935,17 +5144,18 @@
       <c r="X151" s="8"/>
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
-    </row>
-    <row r="152" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA151" s="8"/>
+    </row>
+    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
-      <c r="G152" s="5"/>
+      <c r="G152" s="7"/>
       <c r="H152" s="5"/>
-      <c r="I152" s="8"/>
+      <c r="I152" s="5"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
@@ -4963,17 +5173,18 @@
       <c r="X152" s="8"/>
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
-    </row>
-    <row r="153" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA152" s="8"/>
+    </row>
+    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
-      <c r="G153" s="5"/>
+      <c r="G153" s="7"/>
       <c r="H153" s="5"/>
-      <c r="I153" s="8"/>
+      <c r="I153" s="5"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
@@ -4991,17 +5202,18 @@
       <c r="X153" s="8"/>
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA153" s="8"/>
+    </row>
+    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
-      <c r="G154" s="5"/>
+      <c r="G154" s="7"/>
       <c r="H154" s="5"/>
-      <c r="I154" s="8"/>
+      <c r="I154" s="5"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
@@ -5019,17 +5231,18 @@
       <c r="X154" s="8"/>
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA154" s="8"/>
+    </row>
+    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
-      <c r="G155" s="5"/>
+      <c r="G155" s="7"/>
       <c r="H155" s="5"/>
-      <c r="I155" s="8"/>
+      <c r="I155" s="5"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
@@ -5047,17 +5260,18 @@
       <c r="X155" s="8"/>
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
-    </row>
-    <row r="156" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA155" s="8"/>
+    </row>
+    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
-      <c r="G156" s="5"/>
+      <c r="G156" s="7"/>
       <c r="H156" s="5"/>
-      <c r="I156" s="8"/>
+      <c r="I156" s="5"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
@@ -5075,17 +5289,18 @@
       <c r="X156" s="8"/>
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
-    </row>
-    <row r="157" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA156" s="8"/>
+    </row>
+    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
-      <c r="G157" s="5"/>
+      <c r="G157" s="7"/>
       <c r="H157" s="5"/>
-      <c r="I157" s="8"/>
+      <c r="I157" s="5"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
@@ -5103,17 +5318,18 @@
       <c r="X157" s="8"/>
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
-    </row>
-    <row r="158" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA157" s="8"/>
+    </row>
+    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
-      <c r="G158" s="5"/>
+      <c r="G158" s="7"/>
       <c r="H158" s="5"/>
-      <c r="I158" s="8"/>
+      <c r="I158" s="5"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
@@ -5131,17 +5347,18 @@
       <c r="X158" s="8"/>
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
-    </row>
-    <row r="159" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA158" s="8"/>
+    </row>
+    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
-      <c r="G159" s="5"/>
+      <c r="G159" s="7"/>
       <c r="H159" s="5"/>
-      <c r="I159" s="8"/>
+      <c r="I159" s="5"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
@@ -5159,17 +5376,18 @@
       <c r="X159" s="8"/>
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
-    </row>
-    <row r="160" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA159" s="8"/>
+    </row>
+    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
-      <c r="G160" s="5"/>
+      <c r="G160" s="7"/>
       <c r="H160" s="5"/>
-      <c r="I160" s="8"/>
+      <c r="I160" s="5"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
@@ -5187,17 +5405,18 @@
       <c r="X160" s="8"/>
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
-    </row>
-    <row r="161" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA160" s="8"/>
+    </row>
+    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
-      <c r="G161" s="5"/>
+      <c r="G161" s="7"/>
       <c r="H161" s="5"/>
-      <c r="I161" s="8"/>
+      <c r="I161" s="5"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
@@ -5215,17 +5434,18 @@
       <c r="X161" s="8"/>
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
-    </row>
-    <row r="162" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA161" s="8"/>
+    </row>
+    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
-      <c r="G162" s="5"/>
+      <c r="G162" s="7"/>
       <c r="H162" s="5"/>
-      <c r="I162" s="8"/>
+      <c r="I162" s="5"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
@@ -5243,17 +5463,18 @@
       <c r="X162" s="8"/>
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
-    </row>
-    <row r="163" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA162" s="8"/>
+    </row>
+    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
-      <c r="G163" s="5"/>
+      <c r="G163" s="7"/>
       <c r="H163" s="5"/>
-      <c r="I163" s="8"/>
+      <c r="I163" s="5"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
@@ -5271,17 +5492,18 @@
       <c r="X163" s="8"/>
       <c r="Y163" s="8"/>
       <c r="Z163" s="8"/>
-    </row>
-    <row r="164" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA163" s="8"/>
+    </row>
+    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
-      <c r="G164" s="5"/>
+      <c r="G164" s="7"/>
       <c r="H164" s="5"/>
-      <c r="I164" s="8"/>
+      <c r="I164" s="5"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
@@ -5299,17 +5521,18 @@
       <c r="X164" s="8"/>
       <c r="Y164" s="8"/>
       <c r="Z164" s="8"/>
-    </row>
-    <row r="165" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA164" s="8"/>
+    </row>
+    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
-      <c r="G165" s="5"/>
+      <c r="G165" s="7"/>
       <c r="H165" s="5"/>
-      <c r="I165" s="8"/>
+      <c r="I165" s="5"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -5327,17 +5550,18 @@
       <c r="X165" s="8"/>
       <c r="Y165" s="8"/>
       <c r="Z165" s="8"/>
-    </row>
-    <row r="166" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA165" s="8"/>
+    </row>
+    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
-      <c r="G166" s="5"/>
+      <c r="G166" s="7"/>
       <c r="H166" s="5"/>
-      <c r="I166" s="8"/>
+      <c r="I166" s="5"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -5355,17 +5579,18 @@
       <c r="X166" s="8"/>
       <c r="Y166" s="8"/>
       <c r="Z166" s="8"/>
-    </row>
-    <row r="167" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA166" s="8"/>
+    </row>
+    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
-      <c r="G167" s="5"/>
+      <c r="G167" s="7"/>
       <c r="H167" s="5"/>
-      <c r="I167" s="8"/>
+      <c r="I167" s="5"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
@@ -5383,17 +5608,18 @@
       <c r="X167" s="8"/>
       <c r="Y167" s="8"/>
       <c r="Z167" s="8"/>
-    </row>
-    <row r="168" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA167" s="8"/>
+    </row>
+    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
-      <c r="G168" s="5"/>
+      <c r="G168" s="7"/>
       <c r="H168" s="5"/>
-      <c r="I168" s="8"/>
+      <c r="I168" s="5"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
@@ -5411,17 +5637,18 @@
       <c r="X168" s="8"/>
       <c r="Y168" s="8"/>
       <c r="Z168" s="8"/>
-    </row>
-    <row r="169" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA168" s="8"/>
+    </row>
+    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
-      <c r="G169" s="5"/>
+      <c r="G169" s="7"/>
       <c r="H169" s="5"/>
-      <c r="I169" s="8"/>
+      <c r="I169" s="5"/>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
@@ -5439,17 +5666,18 @@
       <c r="X169" s="8"/>
       <c r="Y169" s="8"/>
       <c r="Z169" s="8"/>
-    </row>
-    <row r="170" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA169" s="8"/>
+    </row>
+    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
-      <c r="G170" s="5"/>
+      <c r="G170" s="7"/>
       <c r="H170" s="5"/>
-      <c r="I170" s="8"/>
+      <c r="I170" s="5"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
@@ -5467,17 +5695,18 @@
       <c r="X170" s="8"/>
       <c r="Y170" s="8"/>
       <c r="Z170" s="8"/>
-    </row>
-    <row r="171" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA170" s="8"/>
+    </row>
+    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
-      <c r="G171" s="5"/>
+      <c r="G171" s="7"/>
       <c r="H171" s="5"/>
-      <c r="I171" s="8"/>
+      <c r="I171" s="5"/>
       <c r="J171" s="8"/>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
@@ -5495,17 +5724,18 @@
       <c r="X171" s="8"/>
       <c r="Y171" s="8"/>
       <c r="Z171" s="8"/>
-    </row>
-    <row r="172" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA171" s="8"/>
+    </row>
+    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
-      <c r="G172" s="5"/>
+      <c r="G172" s="7"/>
       <c r="H172" s="5"/>
-      <c r="I172" s="8"/>
+      <c r="I172" s="5"/>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
@@ -5523,17 +5753,18 @@
       <c r="X172" s="8"/>
       <c r="Y172" s="8"/>
       <c r="Z172" s="8"/>
-    </row>
-    <row r="173" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA172" s="8"/>
+    </row>
+    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
-      <c r="G173" s="5"/>
+      <c r="G173" s="7"/>
       <c r="H173" s="5"/>
-      <c r="I173" s="8"/>
+      <c r="I173" s="5"/>
       <c r="J173" s="8"/>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -5551,17 +5782,18 @@
       <c r="X173" s="8"/>
       <c r="Y173" s="8"/>
       <c r="Z173" s="8"/>
-    </row>
-    <row r="174" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA173" s="8"/>
+    </row>
+    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
-      <c r="G174" s="5"/>
+      <c r="G174" s="7"/>
       <c r="H174" s="5"/>
-      <c r="I174" s="8"/>
+      <c r="I174" s="5"/>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -5579,17 +5811,18 @@
       <c r="X174" s="8"/>
       <c r="Y174" s="8"/>
       <c r="Z174" s="8"/>
-    </row>
-    <row r="175" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA174" s="8"/>
+    </row>
+    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
-      <c r="G175" s="5"/>
+      <c r="G175" s="7"/>
       <c r="H175" s="5"/>
-      <c r="I175" s="8"/>
+      <c r="I175" s="5"/>
       <c r="J175" s="8"/>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
@@ -5607,17 +5840,18 @@
       <c r="X175" s="8"/>
       <c r="Y175" s="8"/>
       <c r="Z175" s="8"/>
-    </row>
-    <row r="176" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA175" s="8"/>
+    </row>
+    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
-      <c r="G176" s="5"/>
+      <c r="G176" s="7"/>
       <c r="H176" s="5"/>
-      <c r="I176" s="8"/>
+      <c r="I176" s="5"/>
       <c r="J176" s="8"/>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -5635,17 +5869,18 @@
       <c r="X176" s="8"/>
       <c r="Y176" s="8"/>
       <c r="Z176" s="8"/>
-    </row>
-    <row r="177" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA176" s="8"/>
+    </row>
+    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
-      <c r="G177" s="5"/>
+      <c r="G177" s="7"/>
       <c r="H177" s="5"/>
-      <c r="I177" s="8"/>
+      <c r="I177" s="5"/>
       <c r="J177" s="8"/>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -5663,17 +5898,18 @@
       <c r="X177" s="8"/>
       <c r="Y177" s="8"/>
       <c r="Z177" s="8"/>
-    </row>
-    <row r="178" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA177" s="8"/>
+    </row>
+    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
-      <c r="G178" s="5"/>
+      <c r="G178" s="7"/>
       <c r="H178" s="5"/>
-      <c r="I178" s="8"/>
+      <c r="I178" s="5"/>
       <c r="J178" s="8"/>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -5691,17 +5927,18 @@
       <c r="X178" s="8"/>
       <c r="Y178" s="8"/>
       <c r="Z178" s="8"/>
-    </row>
-    <row r="179" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA178" s="8"/>
+    </row>
+    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
-      <c r="G179" s="5"/>
+      <c r="G179" s="7"/>
       <c r="H179" s="5"/>
-      <c r="I179" s="8"/>
+      <c r="I179" s="5"/>
       <c r="J179" s="8"/>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -5719,17 +5956,18 @@
       <c r="X179" s="8"/>
       <c r="Y179" s="8"/>
       <c r="Z179" s="8"/>
-    </row>
-    <row r="180" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA179" s="8"/>
+    </row>
+    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
-      <c r="G180" s="5"/>
+      <c r="G180" s="7"/>
       <c r="H180" s="5"/>
-      <c r="I180" s="8"/>
+      <c r="I180" s="5"/>
       <c r="J180" s="8"/>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
@@ -5747,17 +5985,18 @@
       <c r="X180" s="8"/>
       <c r="Y180" s="8"/>
       <c r="Z180" s="8"/>
-    </row>
-    <row r="181" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA180" s="8"/>
+    </row>
+    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
-      <c r="G181" s="5"/>
+      <c r="G181" s="7"/>
       <c r="H181" s="5"/>
-      <c r="I181" s="8"/>
+      <c r="I181" s="5"/>
       <c r="J181" s="8"/>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
@@ -5775,17 +6014,18 @@
       <c r="X181" s="8"/>
       <c r="Y181" s="8"/>
       <c r="Z181" s="8"/>
-    </row>
-    <row r="182" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA181" s="8"/>
+    </row>
+    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
-      <c r="G182" s="5"/>
+      <c r="G182" s="7"/>
       <c r="H182" s="5"/>
-      <c r="I182" s="8"/>
+      <c r="I182" s="5"/>
       <c r="J182" s="8"/>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
@@ -5803,17 +6043,18 @@
       <c r="X182" s="8"/>
       <c r="Y182" s="8"/>
       <c r="Z182" s="8"/>
-    </row>
-    <row r="183" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA182" s="8"/>
+    </row>
+    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
-      <c r="G183" s="5"/>
+      <c r="G183" s="7"/>
       <c r="H183" s="5"/>
-      <c r="I183" s="8"/>
+      <c r="I183" s="5"/>
       <c r="J183" s="8"/>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -5831,17 +6072,18 @@
       <c r="X183" s="8"/>
       <c r="Y183" s="8"/>
       <c r="Z183" s="8"/>
-    </row>
-    <row r="184" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA183" s="8"/>
+    </row>
+    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
-      <c r="G184" s="5"/>
+      <c r="G184" s="7"/>
       <c r="H184" s="5"/>
-      <c r="I184" s="8"/>
+      <c r="I184" s="5"/>
       <c r="J184" s="8"/>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
@@ -5859,17 +6101,18 @@
       <c r="X184" s="8"/>
       <c r="Y184" s="8"/>
       <c r="Z184" s="8"/>
-    </row>
-    <row r="185" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA184" s="8"/>
+    </row>
+    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
-      <c r="G185" s="5"/>
+      <c r="G185" s="7"/>
       <c r="H185" s="5"/>
-      <c r="I185" s="8"/>
+      <c r="I185" s="5"/>
       <c r="J185" s="8"/>
       <c r="K185" s="8"/>
       <c r="L185" s="8"/>
@@ -5887,17 +6130,18 @@
       <c r="X185" s="8"/>
       <c r="Y185" s="8"/>
       <c r="Z185" s="8"/>
-    </row>
-    <row r="186" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA185" s="8"/>
+    </row>
+    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
-      <c r="G186" s="5"/>
+      <c r="G186" s="7"/>
       <c r="H186" s="5"/>
-      <c r="I186" s="8"/>
+      <c r="I186" s="5"/>
       <c r="J186" s="8"/>
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
@@ -5915,17 +6159,18 @@
       <c r="X186" s="8"/>
       <c r="Y186" s="8"/>
       <c r="Z186" s="8"/>
-    </row>
-    <row r="187" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA186" s="8"/>
+    </row>
+    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
-      <c r="G187" s="5"/>
+      <c r="G187" s="7"/>
       <c r="H187" s="5"/>
-      <c r="I187" s="8"/>
+      <c r="I187" s="5"/>
       <c r="J187" s="8"/>
       <c r="K187" s="8"/>
       <c r="L187" s="8"/>
@@ -5943,17 +6188,18 @@
       <c r="X187" s="8"/>
       <c r="Y187" s="8"/>
       <c r="Z187" s="8"/>
-    </row>
-    <row r="188" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA187" s="8"/>
+    </row>
+    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
-      <c r="G188" s="5"/>
+      <c r="G188" s="7"/>
       <c r="H188" s="5"/>
-      <c r="I188" s="8"/>
+      <c r="I188" s="5"/>
       <c r="J188" s="8"/>
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
@@ -5971,17 +6217,18 @@
       <c r="X188" s="8"/>
       <c r="Y188" s="8"/>
       <c r="Z188" s="8"/>
-    </row>
-    <row r="189" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA188" s="8"/>
+    </row>
+    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
-      <c r="G189" s="5"/>
+      <c r="G189" s="7"/>
       <c r="H189" s="5"/>
-      <c r="I189" s="8"/>
+      <c r="I189" s="5"/>
       <c r="J189" s="8"/>
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
@@ -5999,17 +6246,18 @@
       <c r="X189" s="8"/>
       <c r="Y189" s="8"/>
       <c r="Z189" s="8"/>
-    </row>
-    <row r="190" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA189" s="8"/>
+    </row>
+    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
-      <c r="G190" s="5"/>
+      <c r="G190" s="7"/>
       <c r="H190" s="5"/>
-      <c r="I190" s="8"/>
+      <c r="I190" s="5"/>
       <c r="J190" s="8"/>
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
@@ -6027,17 +6275,18 @@
       <c r="X190" s="8"/>
       <c r="Y190" s="8"/>
       <c r="Z190" s="8"/>
-    </row>
-    <row r="191" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA190" s="8"/>
+    </row>
+    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
-      <c r="G191" s="5"/>
+      <c r="G191" s="7"/>
       <c r="H191" s="5"/>
-      <c r="I191" s="8"/>
+      <c r="I191" s="5"/>
       <c r="J191" s="8"/>
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
@@ -6055,17 +6304,18 @@
       <c r="X191" s="8"/>
       <c r="Y191" s="8"/>
       <c r="Z191" s="8"/>
-    </row>
-    <row r="192" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA191" s="8"/>
+    </row>
+    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
-      <c r="G192" s="5"/>
+      <c r="G192" s="7"/>
       <c r="H192" s="5"/>
-      <c r="I192" s="8"/>
+      <c r="I192" s="5"/>
       <c r="J192" s="8"/>
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
@@ -6083,17 +6333,18 @@
       <c r="X192" s="8"/>
       <c r="Y192" s="8"/>
       <c r="Z192" s="8"/>
-    </row>
-    <row r="193" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA192" s="8"/>
+    </row>
+    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
-      <c r="G193" s="5"/>
+      <c r="G193" s="7"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="8"/>
+      <c r="I193" s="5"/>
       <c r="J193" s="8"/>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
@@ -6111,17 +6362,18 @@
       <c r="X193" s="8"/>
       <c r="Y193" s="8"/>
       <c r="Z193" s="8"/>
-    </row>
-    <row r="194" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA193" s="8"/>
+    </row>
+    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
-      <c r="G194" s="5"/>
+      <c r="G194" s="7"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="8"/>
+      <c r="I194" s="5"/>
       <c r="J194" s="8"/>
       <c r="K194" s="8"/>
       <c r="L194" s="8"/>
@@ -6139,17 +6391,18 @@
       <c r="X194" s="8"/>
       <c r="Y194" s="8"/>
       <c r="Z194" s="8"/>
-    </row>
-    <row r="195" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA194" s="8"/>
+    </row>
+    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
-      <c r="G195" s="5"/>
+      <c r="G195" s="7"/>
       <c r="H195" s="5"/>
-      <c r="I195" s="8"/>
+      <c r="I195" s="5"/>
       <c r="J195" s="8"/>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
@@ -6167,17 +6420,18 @@
       <c r="X195" s="8"/>
       <c r="Y195" s="8"/>
       <c r="Z195" s="8"/>
-    </row>
-    <row r="196" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA195" s="8"/>
+    </row>
+    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
-      <c r="G196" s="5"/>
+      <c r="G196" s="7"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="8"/>
+      <c r="I196" s="5"/>
       <c r="J196" s="8"/>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
@@ -6195,17 +6449,18 @@
       <c r="X196" s="8"/>
       <c r="Y196" s="8"/>
       <c r="Z196" s="8"/>
-    </row>
-    <row r="197" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA196" s="8"/>
+    </row>
+    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
-      <c r="G197" s="5"/>
+      <c r="G197" s="7"/>
       <c r="H197" s="5"/>
-      <c r="I197" s="8"/>
+      <c r="I197" s="5"/>
       <c r="J197" s="8"/>
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
@@ -6223,17 +6478,18 @@
       <c r="X197" s="8"/>
       <c r="Y197" s="8"/>
       <c r="Z197" s="8"/>
-    </row>
-    <row r="198" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA197" s="8"/>
+    </row>
+    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
-      <c r="G198" s="5"/>
+      <c r="G198" s="7"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="8"/>
+      <c r="I198" s="5"/>
       <c r="J198" s="8"/>
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>
@@ -6251,17 +6507,18 @@
       <c r="X198" s="8"/>
       <c r="Y198" s="8"/>
       <c r="Z198" s="8"/>
-    </row>
-    <row r="199" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA198" s="8"/>
+    </row>
+    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
-      <c r="G199" s="5"/>
+      <c r="G199" s="7"/>
       <c r="H199" s="5"/>
-      <c r="I199" s="8"/>
+      <c r="I199" s="5"/>
       <c r="J199" s="8"/>
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
@@ -6279,17 +6536,18 @@
       <c r="X199" s="8"/>
       <c r="Y199" s="8"/>
       <c r="Z199" s="8"/>
-    </row>
-    <row r="200" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA199" s="8"/>
+    </row>
+    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
-      <c r="G200" s="5"/>
+      <c r="G200" s="7"/>
       <c r="H200" s="5"/>
-      <c r="I200" s="8"/>
+      <c r="I200" s="5"/>
       <c r="J200" s="8"/>
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
@@ -6307,17 +6565,18 @@
       <c r="X200" s="8"/>
       <c r="Y200" s="8"/>
       <c r="Z200" s="8"/>
-    </row>
-    <row r="201" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA200" s="8"/>
+    </row>
+    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
-      <c r="G201" s="5"/>
+      <c r="G201" s="7"/>
       <c r="H201" s="5"/>
-      <c r="I201" s="8"/>
+      <c r="I201" s="5"/>
       <c r="J201" s="8"/>
       <c r="K201" s="8"/>
       <c r="L201" s="8"/>
@@ -6335,17 +6594,18 @@
       <c r="X201" s="8"/>
       <c r="Y201" s="8"/>
       <c r="Z201" s="8"/>
-    </row>
-    <row r="202" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA201" s="8"/>
+    </row>
+    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
-      <c r="G202" s="5"/>
+      <c r="G202" s="7"/>
       <c r="H202" s="5"/>
-      <c r="I202" s="8"/>
+      <c r="I202" s="5"/>
       <c r="J202" s="8"/>
       <c r="K202" s="8"/>
       <c r="L202" s="8"/>
@@ -6363,17 +6623,18 @@
       <c r="X202" s="8"/>
       <c r="Y202" s="8"/>
       <c r="Z202" s="8"/>
-    </row>
-    <row r="203" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA202" s="8"/>
+    </row>
+    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
-      <c r="G203" s="5"/>
+      <c r="G203" s="7"/>
       <c r="H203" s="5"/>
-      <c r="I203" s="8"/>
+      <c r="I203" s="5"/>
       <c r="J203" s="8"/>
       <c r="K203" s="8"/>
       <c r="L203" s="8"/>
@@ -6391,17 +6652,18 @@
       <c r="X203" s="8"/>
       <c r="Y203" s="8"/>
       <c r="Z203" s="8"/>
-    </row>
-    <row r="204" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA203" s="8"/>
+    </row>
+    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
-      <c r="G204" s="5"/>
+      <c r="G204" s="7"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="8"/>
+      <c r="I204" s="5"/>
       <c r="J204" s="8"/>
       <c r="K204" s="8"/>
       <c r="L204" s="8"/>
@@ -6419,17 +6681,18 @@
       <c r="X204" s="8"/>
       <c r="Y204" s="8"/>
       <c r="Z204" s="8"/>
-    </row>
-    <row r="205" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA204" s="8"/>
+    </row>
+    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
-      <c r="G205" s="5"/>
+      <c r="G205" s="7"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="8"/>
+      <c r="I205" s="5"/>
       <c r="J205" s="8"/>
       <c r="K205" s="8"/>
       <c r="L205" s="8"/>
@@ -6447,17 +6710,18 @@
       <c r="X205" s="8"/>
       <c r="Y205" s="8"/>
       <c r="Z205" s="8"/>
-    </row>
-    <row r="206" spans="1:26" ht="15.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA205" s="8"/>
+    </row>
+    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
-      <c r="G206" s="5"/>
+      <c r="G206" s="7"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="8"/>
+      <c r="I206" s="5"/>
       <c r="J206" s="8"/>
       <c r="K206" s="8"/>
       <c r="L206" s="8"/>
@@ -6475,21 +6739,27 @@
       <c r="X206" s="8"/>
       <c r="Y206" s="8"/>
       <c r="Z206" s="8"/>
+      <c r="AA206" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H6"/>
-  <conditionalFormatting sqref="F15:F206">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <autoFilter ref="A1:I6"/>
+  <conditionalFormatting sqref="G20:G206">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 A13:I13 F7:F12 A6:I6 F2:F5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="G14 A13:J13 G7:G12 A6:J6 G2:G5">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19 C18:J18 G15:G17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DatalexionBackend/DatalexionBackend.UI/wwwroot/Circuitos_upload.xlsx
+++ b/DatalexionBackend/DatalexionBackend.UI/wwwroot/Circuitos_upload.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DatalexionSolution\DatalexionBackend\DatalexionBackend.UI\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\DatalexionSolution\DatalexionBackend\DatalexionBackend.UI\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20491" windowHeight="9202"/>
   </bookViews>
   <sheets>
     <sheet name="Plan Circuital - Versión 3" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <t>DEPARTAMENTO</t>
   </si>
   <si>
-    <t>Santa Lucía</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -427,23 +427,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -694,10 +678,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.2" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
@@ -710,7 +694,7 @@
     <col min="10" max="27" width="96.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
@@ -742,7 +726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2056</v>
       </c>
@@ -774,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2066</v>
       </c>
@@ -806,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2073</v>
       </c>
@@ -838,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2079</v>
       </c>
@@ -870,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>2083</v>
       </c>
@@ -902,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2091</v>
       </c>
@@ -934,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2098</v>
       </c>
@@ -966,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2105</v>
       </c>
@@ -998,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2114</v>
       </c>
@@ -1030,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2136</v>
       </c>
@@ -1062,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2143</v>
       </c>
@@ -1094,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2159</v>
       </c>
@@ -1126,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2167</v>
       </c>
@@ -1158,12 +1142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2168</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>42</v>
@@ -1190,12 +1174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2169</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>42</v>
@@ -1222,12 +1206,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2170</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>42</v>
@@ -1254,12 +1238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2171</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>42</v>
@@ -1286,12 +1270,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2172</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>42</v>
@@ -1318,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1347,7 +1331,7 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1376,7 +1360,7 @@
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1405,7 +1389,7 @@
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1434,7 +1418,7 @@
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1463,7 +1447,7 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1492,7 +1476,7 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1521,7 +1505,7 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1550,7 +1534,7 @@
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1579,7 +1563,7 @@
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1608,7 +1592,7 @@
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1637,7 +1621,7 @@
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1666,7 +1650,7 @@
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1695,7 +1679,7 @@
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1724,7 +1708,7 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1753,7 +1737,7 @@
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1782,7 +1766,7 @@
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1811,7 +1795,7 @@
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1840,7 +1824,7 @@
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1869,7 +1853,7 @@
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1898,7 +1882,7 @@
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1927,7 +1911,7 @@
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1956,7 +1940,7 @@
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
     </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1985,7 +1969,7 @@
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
     </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2014,7 +1998,7 @@
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
     </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2043,7 +2027,7 @@
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
     </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2072,7 +2056,7 @@
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
     </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2101,7 +2085,7 @@
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
     </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2130,7 +2114,7 @@
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
     </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2159,7 +2143,7 @@
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
     </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2188,7 +2172,7 @@
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
     </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2217,7 +2201,7 @@
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
     </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2246,7 +2230,7 @@
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
     </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2275,7 +2259,7 @@
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
     </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2304,7 +2288,7 @@
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
     </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2333,7 +2317,7 @@
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
     </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2362,7 +2346,7 @@
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2391,7 +2375,7 @@
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
     </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2420,7 +2404,7 @@
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2449,7 +2433,7 @@
       <c r="Z58" s="8"/>
       <c r="AA58" s="8"/>
     </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2478,7 +2462,7 @@
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2507,7 +2491,7 @@
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
     </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2536,7 +2520,7 @@
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
     </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2565,7 +2549,7 @@
       <c r="Z62" s="8"/>
       <c r="AA62" s="8"/>
     </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2594,7 +2578,7 @@
       <c r="Z63" s="8"/>
       <c r="AA63" s="8"/>
     </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2623,7 +2607,7 @@
       <c r="Z64" s="8"/>
       <c r="AA64" s="8"/>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2652,7 +2636,7 @@
       <c r="Z65" s="8"/>
       <c r="AA65" s="8"/>
     </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2681,7 +2665,7 @@
       <c r="Z66" s="8"/>
       <c r="AA66" s="8"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2710,7 +2694,7 @@
       <c r="Z67" s="8"/>
       <c r="AA67" s="8"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2739,7 +2723,7 @@
       <c r="Z68" s="8"/>
       <c r="AA68" s="8"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2768,7 +2752,7 @@
       <c r="Z69" s="8"/>
       <c r="AA69" s="8"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2797,7 +2781,7 @@
       <c r="Z70" s="8"/>
       <c r="AA70" s="8"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2826,7 +2810,7 @@
       <c r="Z71" s="8"/>
       <c r="AA71" s="8"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2855,7 +2839,7 @@
       <c r="Z72" s="8"/>
       <c r="AA72" s="8"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2884,7 +2868,7 @@
       <c r="Z73" s="8"/>
       <c r="AA73" s="8"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2913,7 +2897,7 @@
       <c r="Z74" s="8"/>
       <c r="AA74" s="8"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2942,7 +2926,7 @@
       <c r="Z75" s="8"/>
       <c r="AA75" s="8"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2971,7 +2955,7 @@
       <c r="Z76" s="8"/>
       <c r="AA76" s="8"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3000,7 +2984,7 @@
       <c r="Z77" s="8"/>
       <c r="AA77" s="8"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3029,7 +3013,7 @@
       <c r="Z78" s="8"/>
       <c r="AA78" s="8"/>
     </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3058,7 +3042,7 @@
       <c r="Z79" s="8"/>
       <c r="AA79" s="8"/>
     </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3087,7 +3071,7 @@
       <c r="Z80" s="8"/>
       <c r="AA80" s="8"/>
     </row>
-    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3116,7 +3100,7 @@
       <c r="Z81" s="8"/>
       <c r="AA81" s="8"/>
     </row>
-    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3145,7 +3129,7 @@
       <c r="Z82" s="8"/>
       <c r="AA82" s="8"/>
     </row>
-    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3174,7 +3158,7 @@
       <c r="Z83" s="8"/>
       <c r="AA83" s="8"/>
     </row>
-    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3203,7 +3187,7 @@
       <c r="Z84" s="8"/>
       <c r="AA84" s="8"/>
     </row>
-    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3232,7 +3216,7 @@
       <c r="Z85" s="8"/>
       <c r="AA85" s="8"/>
     </row>
-    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3261,7 +3245,7 @@
       <c r="Z86" s="8"/>
       <c r="AA86" s="8"/>
     </row>
-    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3290,7 +3274,7 @@
       <c r="Z87" s="8"/>
       <c r="AA87" s="8"/>
     </row>
-    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3319,7 +3303,7 @@
       <c r="Z88" s="8"/>
       <c r="AA88" s="8"/>
     </row>
-    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3348,7 +3332,7 @@
       <c r="Z89" s="8"/>
       <c r="AA89" s="8"/>
     </row>
-    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3377,7 +3361,7 @@
       <c r="Z90" s="8"/>
       <c r="AA90" s="8"/>
     </row>
-    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3406,7 +3390,7 @@
       <c r="Z91" s="8"/>
       <c r="AA91" s="8"/>
     </row>
-    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3435,7 +3419,7 @@
       <c r="Z92" s="8"/>
       <c r="AA92" s="8"/>
     </row>
-    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3464,7 +3448,7 @@
       <c r="Z93" s="8"/>
       <c r="AA93" s="8"/>
     </row>
-    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3493,7 +3477,7 @@
       <c r="Z94" s="8"/>
       <c r="AA94" s="8"/>
     </row>
-    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3522,7 +3506,7 @@
       <c r="Z95" s="8"/>
       <c r="AA95" s="8"/>
     </row>
-    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3551,7 +3535,7 @@
       <c r="Z96" s="8"/>
       <c r="AA96" s="8"/>
     </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3580,7 +3564,7 @@
       <c r="Z97" s="8"/>
       <c r="AA97" s="8"/>
     </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3609,7 +3593,7 @@
       <c r="Z98" s="8"/>
       <c r="AA98" s="8"/>
     </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3638,7 +3622,7 @@
       <c r="Z99" s="8"/>
       <c r="AA99" s="8"/>
     </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3667,7 +3651,7 @@
       <c r="Z100" s="8"/>
       <c r="AA100" s="8"/>
     </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3696,7 +3680,7 @@
       <c r="Z101" s="8"/>
       <c r="AA101" s="8"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3725,7 +3709,7 @@
       <c r="Z102" s="8"/>
       <c r="AA102" s="8"/>
     </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3754,7 +3738,7 @@
       <c r="Z103" s="8"/>
       <c r="AA103" s="8"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3783,7 +3767,7 @@
       <c r="Z104" s="8"/>
       <c r="AA104" s="8"/>
     </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3812,7 +3796,7 @@
       <c r="Z105" s="8"/>
       <c r="AA105" s="8"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3841,7 +3825,7 @@
       <c r="Z106" s="8"/>
       <c r="AA106" s="8"/>
     </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3870,7 +3854,7 @@
       <c r="Z107" s="8"/>
       <c r="AA107" s="8"/>
     </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3899,7 +3883,7 @@
       <c r="Z108" s="8"/>
       <c r="AA108" s="8"/>
     </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3928,7 +3912,7 @@
       <c r="Z109" s="8"/>
       <c r="AA109" s="8"/>
     </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3957,7 +3941,7 @@
       <c r="Z110" s="8"/>
       <c r="AA110" s="8"/>
     </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3986,7 +3970,7 @@
       <c r="Z111" s="8"/>
       <c r="AA111" s="8"/>
     </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4015,7 +3999,7 @@
       <c r="Z112" s="8"/>
       <c r="AA112" s="8"/>
     </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4044,7 +4028,7 @@
       <c r="Z113" s="8"/>
       <c r="AA113" s="8"/>
     </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4073,7 +4057,7 @@
       <c r="Z114" s="8"/>
       <c r="AA114" s="8"/>
     </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4102,7 +4086,7 @@
       <c r="Z115" s="8"/>
       <c r="AA115" s="8"/>
     </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4131,7 +4115,7 @@
       <c r="Z116" s="8"/>
       <c r="AA116" s="8"/>
     </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4160,7 +4144,7 @@
       <c r="Z117" s="8"/>
       <c r="AA117" s="8"/>
     </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4189,7 +4173,7 @@
       <c r="Z118" s="8"/>
       <c r="AA118" s="8"/>
     </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4218,7 +4202,7 @@
       <c r="Z119" s="8"/>
       <c r="AA119" s="8"/>
     </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4247,7 +4231,7 @@
       <c r="Z120" s="8"/>
       <c r="AA120" s="8"/>
     </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4276,7 +4260,7 @@
       <c r="Z121" s="8"/>
       <c r="AA121" s="8"/>
     </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4305,7 +4289,7 @@
       <c r="Z122" s="8"/>
       <c r="AA122" s="8"/>
     </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4334,7 +4318,7 @@
       <c r="Z123" s="8"/>
       <c r="AA123" s="8"/>
     </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4363,7 +4347,7 @@
       <c r="Z124" s="8"/>
       <c r="AA124" s="8"/>
     </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4392,7 +4376,7 @@
       <c r="Z125" s="8"/>
       <c r="AA125" s="8"/>
     </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4421,7 +4405,7 @@
       <c r="Z126" s="8"/>
       <c r="AA126" s="8"/>
     </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4450,7 +4434,7 @@
       <c r="Z127" s="8"/>
       <c r="AA127" s="8"/>
     </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4479,7 +4463,7 @@
       <c r="Z128" s="8"/>
       <c r="AA128" s="8"/>
     </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4508,7 +4492,7 @@
       <c r="Z129" s="8"/>
       <c r="AA129" s="8"/>
     </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4537,7 +4521,7 @@
       <c r="Z130" s="8"/>
       <c r="AA130" s="8"/>
     </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4566,7 +4550,7 @@
       <c r="Z131" s="8"/>
       <c r="AA131" s="8"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4595,7 +4579,7 @@
       <c r="Z132" s="8"/>
       <c r="AA132" s="8"/>
     </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4624,7 +4608,7 @@
       <c r="Z133" s="8"/>
       <c r="AA133" s="8"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4653,7 +4637,7 @@
       <c r="Z134" s="8"/>
       <c r="AA134" s="8"/>
     </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4682,7 +4666,7 @@
       <c r="Z135" s="8"/>
       <c r="AA135" s="8"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4711,7 +4695,7 @@
       <c r="Z136" s="8"/>
       <c r="AA136" s="8"/>
     </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4740,7 +4724,7 @@
       <c r="Z137" s="8"/>
       <c r="AA137" s="8"/>
     </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4769,7 +4753,7 @@
       <c r="Z138" s="8"/>
       <c r="AA138" s="8"/>
     </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -4798,7 +4782,7 @@
       <c r="Z139" s="8"/>
       <c r="AA139" s="8"/>
     </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -4827,7 +4811,7 @@
       <c r="Z140" s="8"/>
       <c r="AA140" s="8"/>
     </row>
-    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -4856,7 +4840,7 @@
       <c r="Z141" s="8"/>
       <c r="AA141" s="8"/>
     </row>
-    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -4885,7 +4869,7 @@
       <c r="Z142" s="8"/>
       <c r="AA142" s="8"/>
     </row>
-    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -4914,7 +4898,7 @@
       <c r="Z143" s="8"/>
       <c r="AA143" s="8"/>
     </row>
-    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -4943,7 +4927,7 @@
       <c r="Z144" s="8"/>
       <c r="AA144" s="8"/>
     </row>
-    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -4972,7 +4956,7 @@
       <c r="Z145" s="8"/>
       <c r="AA145" s="8"/>
     </row>
-    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -5001,7 +4985,7 @@
       <c r="Z146" s="8"/>
       <c r="AA146" s="8"/>
     </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -5030,7 +5014,7 @@
       <c r="Z147" s="8"/>
       <c r="AA147" s="8"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -5059,7 +5043,7 @@
       <c r="Z148" s="8"/>
       <c r="AA148" s="8"/>
     </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -5088,7 +5072,7 @@
       <c r="Z149" s="8"/>
       <c r="AA149" s="8"/>
     </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -5117,7 +5101,7 @@
       <c r="Z150" s="8"/>
       <c r="AA150" s="8"/>
     </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -5146,7 +5130,7 @@
       <c r="Z151" s="8"/>
       <c r="AA151" s="8"/>
     </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -5175,7 +5159,7 @@
       <c r="Z152" s="8"/>
       <c r="AA152" s="8"/>
     </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -5204,7 +5188,7 @@
       <c r="Z153" s="8"/>
       <c r="AA153" s="8"/>
     </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -5233,7 +5217,7 @@
       <c r="Z154" s="8"/>
       <c r="AA154" s="8"/>
     </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -5262,7 +5246,7 @@
       <c r="Z155" s="8"/>
       <c r="AA155" s="8"/>
     </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -5291,7 +5275,7 @@
       <c r="Z156" s="8"/>
       <c r="AA156" s="8"/>
     </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -5320,7 +5304,7 @@
       <c r="Z157" s="8"/>
       <c r="AA157" s="8"/>
     </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -5349,7 +5333,7 @@
       <c r="Z158" s="8"/>
       <c r="AA158" s="8"/>
     </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -5378,7 +5362,7 @@
       <c r="Z159" s="8"/>
       <c r="AA159" s="8"/>
     </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -5407,7 +5391,7 @@
       <c r="Z160" s="8"/>
       <c r="AA160" s="8"/>
     </row>
-    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -5436,7 +5420,7 @@
       <c r="Z161" s="8"/>
       <c r="AA161" s="8"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -5465,7 +5449,7 @@
       <c r="Z162" s="8"/>
       <c r="AA162" s="8"/>
     </row>
-    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -5494,7 +5478,7 @@
       <c r="Z163" s="8"/>
       <c r="AA163" s="8"/>
     </row>
-    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -5523,7 +5507,7 @@
       <c r="Z164" s="8"/>
       <c r="AA164" s="8"/>
     </row>
-    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -5552,7 +5536,7 @@
       <c r="Z165" s="8"/>
       <c r="AA165" s="8"/>
     </row>
-    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -5581,7 +5565,7 @@
       <c r="Z166" s="8"/>
       <c r="AA166" s="8"/>
     </row>
-    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -5610,7 +5594,7 @@
       <c r="Z167" s="8"/>
       <c r="AA167" s="8"/>
     </row>
-    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -5639,7 +5623,7 @@
       <c r="Z168" s="8"/>
       <c r="AA168" s="8"/>
     </row>
-    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -5668,7 +5652,7 @@
       <c r="Z169" s="8"/>
       <c r="AA169" s="8"/>
     </row>
-    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -5697,7 +5681,7 @@
       <c r="Z170" s="8"/>
       <c r="AA170" s="8"/>
     </row>
-    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -5726,7 +5710,7 @@
       <c r="Z171" s="8"/>
       <c r="AA171" s="8"/>
     </row>
-    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -5755,7 +5739,7 @@
       <c r="Z172" s="8"/>
       <c r="AA172" s="8"/>
     </row>
-    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -5784,7 +5768,7 @@
       <c r="Z173" s="8"/>
       <c r="AA173" s="8"/>
     </row>
-    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -5813,7 +5797,7 @@
       <c r="Z174" s="8"/>
       <c r="AA174" s="8"/>
     </row>
-    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -5842,7 +5826,7 @@
       <c r="Z175" s="8"/>
       <c r="AA175" s="8"/>
     </row>
-    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -5871,7 +5855,7 @@
       <c r="Z176" s="8"/>
       <c r="AA176" s="8"/>
     </row>
-    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -5900,7 +5884,7 @@
       <c r="Z177" s="8"/>
       <c r="AA177" s="8"/>
     </row>
-    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -5929,7 +5913,7 @@
       <c r="Z178" s="8"/>
       <c r="AA178" s="8"/>
     </row>
-    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -5958,7 +5942,7 @@
       <c r="Z179" s="8"/>
       <c r="AA179" s="8"/>
     </row>
-    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -5987,7 +5971,7 @@
       <c r="Z180" s="8"/>
       <c r="AA180" s="8"/>
     </row>
-    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -6016,7 +6000,7 @@
       <c r="Z181" s="8"/>
       <c r="AA181" s="8"/>
     </row>
-    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -6045,7 +6029,7 @@
       <c r="Z182" s="8"/>
       <c r="AA182" s="8"/>
     </row>
-    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -6074,7 +6058,7 @@
       <c r="Z183" s="8"/>
       <c r="AA183" s="8"/>
     </row>
-    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -6103,7 +6087,7 @@
       <c r="Z184" s="8"/>
       <c r="AA184" s="8"/>
     </row>
-    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -6132,7 +6116,7 @@
       <c r="Z185" s="8"/>
       <c r="AA185" s="8"/>
     </row>
-    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -6161,7 +6145,7 @@
       <c r="Z186" s="8"/>
       <c r="AA186" s="8"/>
     </row>
-    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -6190,7 +6174,7 @@
       <c r="Z187" s="8"/>
       <c r="AA187" s="8"/>
     </row>
-    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -6219,7 +6203,7 @@
       <c r="Z188" s="8"/>
       <c r="AA188" s="8"/>
     </row>
-    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -6248,7 +6232,7 @@
       <c r="Z189" s="8"/>
       <c r="AA189" s="8"/>
     </row>
-    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -6277,7 +6261,7 @@
       <c r="Z190" s="8"/>
       <c r="AA190" s="8"/>
     </row>
-    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -6306,7 +6290,7 @@
       <c r="Z191" s="8"/>
       <c r="AA191" s="8"/>
     </row>
-    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -6335,7 +6319,7 @@
       <c r="Z192" s="8"/>
       <c r="AA192" s="8"/>
     </row>
-    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -6364,7 +6348,7 @@
       <c r="Z193" s="8"/>
       <c r="AA193" s="8"/>
     </row>
-    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -6393,7 +6377,7 @@
       <c r="Z194" s="8"/>
       <c r="AA194" s="8"/>
     </row>
-    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -6422,7 +6406,7 @@
       <c r="Z195" s="8"/>
       <c r="AA195" s="8"/>
     </row>
-    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -6451,7 +6435,7 @@
       <c r="Z196" s="8"/>
       <c r="AA196" s="8"/>
     </row>
-    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -6480,7 +6464,7 @@
       <c r="Z197" s="8"/>
       <c r="AA197" s="8"/>
     </row>
-    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -6509,7 +6493,7 @@
       <c r="Z198" s="8"/>
       <c r="AA198" s="8"/>
     </row>
-    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -6538,7 +6522,7 @@
       <c r="Z199" s="8"/>
       <c r="AA199" s="8"/>
     </row>
-    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -6567,7 +6551,7 @@
       <c r="Z200" s="8"/>
       <c r="AA200" s="8"/>
     </row>
-    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -6596,7 +6580,7 @@
       <c r="Z201" s="8"/>
       <c r="AA201" s="8"/>
     </row>
-    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -6625,7 +6609,7 @@
       <c r="Z202" s="8"/>
       <c r="AA202" s="8"/>
     </row>
-    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -6654,7 +6638,7 @@
       <c r="Z203" s="8"/>
       <c r="AA203" s="8"/>
     </row>
-    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -6683,7 +6667,7 @@
       <c r="Z204" s="8"/>
       <c r="AA204" s="8"/>
     </row>
-    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -6712,7 +6696,7 @@
       <c r="Z205" s="8"/>
       <c r="AA205" s="8"/>
     </row>
-    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
